--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/0.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/0.xlsx
@@ -479,13 +479,13 @@
         <v>-12.65012514851685</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.73666305781864</v>
+        <v>-12.10869393536912</v>
       </c>
       <c r="F2" t="n">
-        <v>2.309400953624336</v>
+        <v>-0.2212626318642626</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.89570516938604</v>
+        <v>-11.10392515378085</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-12.02402090596947</v>
       </c>
       <c r="E3" t="n">
-        <v>-12.3585081658921</v>
+        <v>-12.64923584279547</v>
       </c>
       <c r="F3" t="n">
-        <v>2.412751592256921</v>
+        <v>-0.1340417103326836</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.63419951242541</v>
+        <v>-10.9402451836536</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-11.46645650585958</v>
       </c>
       <c r="E4" t="n">
-        <v>-12.91515360581377</v>
+        <v>-13.1473848736203</v>
       </c>
       <c r="F4" t="n">
-        <v>2.273344751598223</v>
+        <v>-0.271812013136167</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.38339026688646</v>
+        <v>-10.83308468489407</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-11.0451291548973</v>
       </c>
       <c r="E5" t="n">
-        <v>-13.49340134542428</v>
+        <v>-13.64918665693798</v>
       </c>
       <c r="F5" t="n">
-        <v>2.466403849302315</v>
+        <v>-0.003249604943840145</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.12894136115752</v>
+        <v>-10.68383243249839</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-10.73839025567798</v>
       </c>
       <c r="E6" t="n">
-        <v>-14.27510347119522</v>
+        <v>-14.35380130357683</v>
       </c>
       <c r="F6" t="n">
-        <v>2.451295331822963</v>
+        <v>-0.02303207453768823</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.616966858531818</v>
+        <v>-10.45275328734193</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-10.54971428373199</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.8403505540839</v>
+        <v>-14.86949402020958</v>
       </c>
       <c r="F7" t="n">
-        <v>2.514374046914399</v>
+        <v>0.08724439229817044</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.443074892188012</v>
+        <v>-10.49301211858023</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-10.45808187198195</v>
       </c>
       <c r="E8" t="n">
-        <v>-15.66275664938976</v>
+        <v>-15.54355123201585</v>
       </c>
       <c r="F8" t="n">
-        <v>2.821755133032444</v>
+        <v>0.3797788069936977</v>
       </c>
       <c r="G8" t="n">
-        <v>-8.821125045691815</v>
+        <v>-9.888645234800475</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-10.45536868049769</v>
       </c>
       <c r="E9" t="n">
-        <v>-16.50131864640232</v>
+        <v>-16.3920895637938</v>
       </c>
       <c r="F9" t="n">
-        <v>2.868861238656975</v>
+        <v>0.493708026322398</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.175556684869145</v>
+        <v>-9.357778539174166</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-10.51325976616068</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.13431839649693</v>
+        <v>-17.10428465377801</v>
       </c>
       <c r="F10" t="n">
-        <v>3.156342024455595</v>
+        <v>0.6748138515319947</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.555321930045213</v>
+        <v>-8.830407488406598</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-10.61521571357095</v>
       </c>
       <c r="E11" t="n">
-        <v>-18.09310701050506</v>
+        <v>-18.08737258186038</v>
       </c>
       <c r="F11" t="n">
-        <v>3.30360424681933</v>
+        <v>0.8501852480969153</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.236458894334975</v>
+        <v>-8.592389422744018</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-10.7341666010039</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.02348532734664</v>
+        <v>-18.96921773206768</v>
       </c>
       <c r="F12" t="n">
-        <v>3.593624939369246</v>
+        <v>1.044461929965288</v>
       </c>
       <c r="G12" t="n">
-        <v>-6.65844681617561</v>
+        <v>-8.115476107128464</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-10.84591819121906</v>
       </c>
       <c r="E13" t="n">
-        <v>-19.64286908248586</v>
+        <v>-19.46675142465896</v>
       </c>
       <c r="F13" t="n">
-        <v>3.587523926245002</v>
+        <v>0.9772067702673417</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.941001712751864</v>
+        <v>-7.500674657983849</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-10.93336971249636</v>
       </c>
       <c r="E14" t="n">
-        <v>-20.58243819592233</v>
+        <v>-20.43119591349471</v>
       </c>
       <c r="F14" t="n">
-        <v>4.005011279261963</v>
+        <v>1.461281575537321</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.138797040730783</v>
+        <v>-6.689331558579243</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-10.97617091825683</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.48318863143308</v>
+        <v>-21.28660770426456</v>
       </c>
       <c r="F15" t="n">
-        <v>4.066859317886276</v>
+        <v>1.528366535298326</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.786038032963315</v>
+        <v>-6.36216800286735</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-10.96920014504215</v>
       </c>
       <c r="E16" t="n">
-        <v>-22.27408155379891</v>
+        <v>-21.95253459600612</v>
       </c>
       <c r="F16" t="n">
-        <v>4.240384699750514</v>
+        <v>1.692936782018822</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.377610553512829</v>
+        <v>-5.918286567321469</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-10.90534621726501</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.19492867417171</v>
+        <v>-22.80972693996245</v>
       </c>
       <c r="F17" t="n">
-        <v>4.594033984111219</v>
+        <v>1.960333975258236</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.32202063564686</v>
+        <v>-5.909108863029419</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-10.79385426826094</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.13791487864988</v>
+        <v>-23.84132185007341</v>
       </c>
       <c r="F18" t="n">
-        <v>4.431820351902233</v>
+        <v>1.910975993544928</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.042146477799282</v>
+        <v>-5.683109531375544</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-10.6439509854318</v>
       </c>
       <c r="E19" t="n">
-        <v>-24.83899460352146</v>
+        <v>-24.42674417164119</v>
       </c>
       <c r="F19" t="n">
-        <v>4.678269860594884</v>
+        <v>2.189213613537291</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.017978086753455</v>
+        <v>-5.657645002348387</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-10.47192941001182</v>
       </c>
       <c r="E20" t="n">
-        <v>-25.25792210985102</v>
+        <v>-24.92355778757617</v>
       </c>
       <c r="F20" t="n">
-        <v>4.904243007643076</v>
+        <v>2.472400124003825</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.709615077922281</v>
+        <v>-5.389868132326563</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-10.3001067495244</v>
       </c>
       <c r="E21" t="n">
-        <v>-25.91967255698606</v>
+        <v>-25.63316060159773</v>
       </c>
       <c r="F21" t="n">
-        <v>4.825139313873367</v>
+        <v>2.431578323743324</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.748747971116201</v>
+        <v>-5.252608429333907</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-10.14368844026817</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.42083281746449</v>
+        <v>-26.16188015955799</v>
       </c>
       <c r="F22" t="n">
-        <v>4.977193319077173</v>
+        <v>2.674388172245975</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.740067774332136</v>
+        <v>-5.406783387598074</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-10.0218557369617</v>
       </c>
       <c r="E23" t="n">
-        <v>-26.84722293641383</v>
+        <v>-26.6432972273511</v>
       </c>
       <c r="F23" t="n">
-        <v>4.960147140777246</v>
+        <v>2.666794636597774</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.845735750567707</v>
+        <v>-5.340588704430306</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-9.938286671971214</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.27341667082053</v>
+        <v>-26.99669775795781</v>
       </c>
       <c r="F24" t="n">
-        <v>5.181171397351266</v>
+        <v>2.882581972035103</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.117505772956257</v>
+        <v>-5.54010230743537</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-9.89640620777458</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.34817372004679</v>
+        <v>-27.16238085041986</v>
       </c>
       <c r="F25" t="n">
-        <v>4.984891593148109</v>
+        <v>2.708428159634463</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.831059279082132</v>
+        <v>-5.192161267113658</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-9.887448766840265</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.69874631323969</v>
+        <v>-27.60952226937333</v>
       </c>
       <c r="F26" t="n">
-        <v>5.102120072792924</v>
+        <v>2.989624640069056</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.869537557133965</v>
+        <v>-5.261943241260058</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-9.89506441437651</v>
       </c>
       <c r="E27" t="n">
-        <v>-27.61056965360066</v>
+        <v>-27.4298173205678</v>
       </c>
       <c r="F27" t="n">
-        <v>5.124874495131843</v>
+        <v>2.913139406867692</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.783638958189401</v>
+        <v>-5.218751734185203</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-9.904600960884371</v>
       </c>
       <c r="E28" t="n">
-        <v>-27.90518574444803</v>
+        <v>-27.66456231051994</v>
       </c>
       <c r="F28" t="n">
-        <v>4.886516029595379</v>
+        <v>2.676666232940436</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.919576338595042</v>
+        <v>-5.25505668996531</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-9.890315473278735</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.94522200653802</v>
+        <v>-27.62045434224617</v>
       </c>
       <c r="F29" t="n">
-        <v>4.996700850311345</v>
+        <v>2.844535739977047</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.982118269269968</v>
+        <v>-5.285090432684229</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-9.836905884496488</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.61147302249674</v>
+        <v>-27.29647221612482</v>
       </c>
       <c r="F30" t="n">
-        <v>4.843913676148402</v>
+        <v>2.699499209096406</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.143755840153918</v>
+        <v>-5.349452193454155</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-9.725585057718993</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.40958971267733</v>
+        <v>-27.03708751222454</v>
       </c>
       <c r="F31" t="n">
-        <v>4.837865032235524</v>
+        <v>2.641212276845041</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.050826674583346</v>
+        <v>-5.242776109899771</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-9.547133514204193</v>
       </c>
       <c r="E32" t="n">
-        <v>-27.11280029955824</v>
+        <v>-26.78194471444498</v>
       </c>
       <c r="F32" t="n">
-        <v>4.809585658097396</v>
+        <v>2.609214688699863</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.300889658860314</v>
+        <v>-5.434172485142964</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-9.298901476083193</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.90395188462703</v>
+        <v>-26.58152774254384</v>
       </c>
       <c r="F33" t="n">
-        <v>4.866746652304372</v>
+        <v>2.685752291112594</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.649681698866738</v>
+        <v>-5.771168360288994</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-8.979371987081132</v>
       </c>
       <c r="E34" t="n">
-        <v>-26.41030660597974</v>
+        <v>-26.1156643305267</v>
       </c>
       <c r="F34" t="n">
-        <v>4.826736574820058</v>
+        <v>2.596855554817274</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.854471499917017</v>
+        <v>-5.898137513248053</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-8.601422125608071</v>
       </c>
       <c r="E35" t="n">
-        <v>-26.09695542976587</v>
+        <v>-25.73016147335208</v>
       </c>
       <c r="F35" t="n">
-        <v>4.789947203834807</v>
+        <v>2.590728357087346</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.024422683105463</v>
+        <v>-5.988251833707653</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-8.172472519579033</v>
       </c>
       <c r="E36" t="n">
-        <v>-25.81515670340056</v>
+        <v>-25.43990511935101</v>
       </c>
       <c r="F36" t="n">
-        <v>4.822625591727755</v>
+        <v>2.592194695005619</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.074134156995497</v>
+        <v>-5.879886843086687</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-7.71104755936364</v>
       </c>
       <c r="E37" t="n">
-        <v>-25.34190923258069</v>
+        <v>-25.00838281768772</v>
       </c>
       <c r="F37" t="n">
-        <v>4.639150059703806</v>
+        <v>2.329405992366493</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.414926799965627</v>
+        <v>-6.115980340231533</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-7.231762017935585</v>
       </c>
       <c r="E38" t="n">
-        <v>-24.81699953474736</v>
+        <v>-24.39910632034231</v>
       </c>
       <c r="F38" t="n">
-        <v>5.020738318328754</v>
+        <v>2.788736345265611</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.383858765322211</v>
+        <v>-6.069856157320132</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-6.750790332905117</v>
       </c>
       <c r="E39" t="n">
-        <v>-24.43956153612324</v>
+        <v>-24.02357979793308</v>
       </c>
       <c r="F39" t="n">
-        <v>4.973029966773504</v>
+        <v>2.699315916856622</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.637155548401085</v>
+        <v>-6.320626125950553</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-6.288046559373605</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.87372529960669</v>
+        <v>-23.49376048653411</v>
       </c>
       <c r="F40" t="n">
-        <v>5.035375512905804</v>
+        <v>2.67700663281432</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.582665383973821</v>
+        <v>-6.147454236263043</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-5.856173416100289</v>
       </c>
       <c r="E41" t="n">
-        <v>-23.41275840885235</v>
+        <v>-22.999604608076</v>
       </c>
       <c r="F41" t="n">
-        <v>5.221207659441264</v>
+        <v>2.801409694416402</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.855456605984026</v>
+        <v>-6.400947403884542</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-5.474250540673081</v>
       </c>
       <c r="E42" t="n">
-        <v>-22.86280313568281</v>
+        <v>-22.50114136198297</v>
       </c>
       <c r="F42" t="n">
-        <v>5.201019328459322</v>
+        <v>2.862027056573593</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.95091258600305</v>
+        <v>-6.524407819682019</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-5.148116113761969</v>
       </c>
       <c r="E43" t="n">
-        <v>-22.23934767435981</v>
+        <v>-21.84457546677325</v>
       </c>
       <c r="F43" t="n">
-        <v>5.127335848066088</v>
+        <v>2.807458338329279</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.875225983275032</v>
+        <v>-6.28828813793149</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.88703655423854</v>
       </c>
       <c r="E44" t="n">
-        <v>-21.9701306510254</v>
+        <v>-21.65019404648214</v>
       </c>
       <c r="F44" t="n">
-        <v>5.23885608367191</v>
+        <v>2.790516898452085</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.826928478091904</v>
+        <v>-6.113388064268871</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.691836392907973</v>
       </c>
       <c r="E45" t="n">
-        <v>-21.25606336173482</v>
+        <v>-20.83356165672948</v>
       </c>
       <c r="F45" t="n">
-        <v>5.126471756078534</v>
+        <v>2.706726160265039</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.830528861373379</v>
+        <v>-6.129321396827252</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.56128300830553</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.70833378004837</v>
+        <v>-20.2503388420391</v>
       </c>
       <c r="F46" t="n">
-        <v>4.872769111611566</v>
+        <v>2.420109466453972</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.843437871975321</v>
+        <v>-6.112065741681857</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-4.493524317901666</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.90407361648113</v>
+        <v>-19.3753016893095</v>
       </c>
       <c r="F47" t="n">
-        <v>5.122098926929397</v>
+        <v>2.728747413644822</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.961504259002007</v>
+        <v>-6.126467274807755</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-4.481910655558283</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.20275823015839</v>
+        <v>-18.72805751372309</v>
       </c>
       <c r="F48" t="n">
-        <v>4.988740730183576</v>
+        <v>2.533933947359938</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.140541500362611</v>
+        <v>-6.397399389814435</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-4.523379479656205</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.6874582826109</v>
+        <v>-18.14948246654153</v>
       </c>
       <c r="F49" t="n">
-        <v>5.096595120993715</v>
+        <v>2.616834408953748</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.409850169816916</v>
+        <v>-6.715280502811543</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-4.608229329605321</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.08324850646524</v>
+        <v>-17.58589810611375</v>
       </c>
       <c r="F50" t="n">
-        <v>4.960539909862498</v>
+        <v>2.534117239599722</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.284792493072748</v>
+        <v>-6.53230247829558</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-4.732267924921906</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.63791382530393</v>
+        <v>-17.16897372211898</v>
       </c>
       <c r="F51" t="n">
-        <v>5.114322099041412</v>
+        <v>2.650560181074034</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.562192205683241</v>
+        <v>-6.758995702000067</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-4.8856656318625</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.35059014713941</v>
+        <v>-16.78489792595411</v>
       </c>
       <c r="F52" t="n">
-        <v>4.986305561855015</v>
+        <v>2.501229374861306</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.584540766634067</v>
+        <v>-6.739566724582946</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-5.062888086684696</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.42463702865833</v>
+        <v>-15.81969408355353</v>
       </c>
       <c r="F53" t="n">
-        <v>5.032364283252207</v>
+        <v>2.549697079981376</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.677090255422229</v>
+        <v>-6.789225829261612</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-5.256306218615831</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.76232361250109</v>
+        <v>-15.14500844121087</v>
       </c>
       <c r="F54" t="n">
-        <v>4.881305293064372</v>
+        <v>2.438674351883539</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.100024006421347</v>
+        <v>-7.204291106252854</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-5.459460935991133</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.37570790958492</v>
+        <v>-14.65620731461502</v>
       </c>
       <c r="F55" t="n">
-        <v>4.961194525004585</v>
+        <v>2.494552300412026</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.349366914042021</v>
+        <v>-7.445608432231549</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-5.666699034575479</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.26858668773392</v>
+        <v>-14.55428373699218</v>
       </c>
       <c r="F56" t="n">
-        <v>4.808590643081425</v>
+        <v>2.349882354010953</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.560441020456328</v>
+        <v>-7.511318700194172</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-5.868783587062359</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.92520176880113</v>
+        <v>-14.1433163507904</v>
       </c>
       <c r="F57" t="n">
-        <v>4.848862566622574</v>
+        <v>2.489210640852602</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.428666992354355</v>
+        <v>-7.326206630315007</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-6.061524887547749</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.72282095147373</v>
+        <v>-14.04690463266393</v>
       </c>
       <c r="F58" t="n">
-        <v>4.7442288823115</v>
+        <v>2.383843787582391</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.671123348680281</v>
+        <v>-7.64472926615136</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-6.235412596317508</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.08569712598397</v>
+        <v>-13.43900282711691</v>
       </c>
       <c r="F59" t="n">
-        <v>4.77449828648157</v>
+        <v>2.398428612948073</v>
       </c>
       <c r="G59" t="n">
-        <v>-8.035102459983106</v>
+        <v>-8.083596349708861</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-6.385099258536282</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.78795197475743</v>
+        <v>-12.94696790171916</v>
       </c>
       <c r="F60" t="n">
-        <v>4.888767905684156</v>
+        <v>2.570618579922455</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.081815796522385</v>
+        <v>-8.054583806611594</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-6.504184709893793</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.64449961252064</v>
+        <v>-12.89616976669326</v>
       </c>
       <c r="F61" t="n">
-        <v>4.852135642333006</v>
+        <v>2.561401598721879</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.24599327415763</v>
+        <v>-8.256742054790687</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-6.586937479288016</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.30373315415619</v>
+        <v>-12.58713905041716</v>
       </c>
       <c r="F62" t="n">
-        <v>4.801101845855958</v>
+        <v>2.547288096258499</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.394132680811762</v>
+        <v>-8.335701733229138</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-6.630767031314821</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.83142832914093</v>
+        <v>-12.08969700394578</v>
       </c>
       <c r="F63" t="n">
-        <v>4.67088580179215</v>
+        <v>2.343676602463975</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.48355310922075</v>
+        <v>-8.377872040682337</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-6.630163423969793</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.74338259253032</v>
+        <v>-11.90430999570694</v>
       </c>
       <c r="F64" t="n">
-        <v>4.616552744998987</v>
+        <v>2.340717742021745</v>
       </c>
       <c r="G64" t="n">
-        <v>-8.326484752028563</v>
+        <v>-8.249776949678889</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-6.586492580587131</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.57570947003633</v>
+        <v>-11.76524355492212</v>
       </c>
       <c r="F65" t="n">
-        <v>4.519538780941797</v>
+        <v>2.213120158526282</v>
       </c>
       <c r="G65" t="n">
-        <v>-8.441985047698269</v>
+        <v>-8.491264475594527</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-6.50018115914738</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.60731428909626</v>
+        <v>-11.86351438005212</v>
       </c>
       <c r="F66" t="n">
-        <v>4.549782000506184</v>
+        <v>2.260514294813331</v>
       </c>
       <c r="G66" t="n">
-        <v>-8.578472304823263</v>
+        <v>-8.597744174606284</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-6.375031845634155</v>
       </c>
       <c r="E67" t="n">
-        <v>-12.50938386384015</v>
+        <v>-11.70004388677033</v>
       </c>
       <c r="F67" t="n">
-        <v>4.461120925662016</v>
+        <v>2.038259361772189</v>
       </c>
       <c r="G67" t="n">
-        <v>-8.54809816223046</v>
+        <v>-8.485543139252693</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-6.219162524891862</v>
       </c>
       <c r="E68" t="n">
-        <v>-12.20526276112969</v>
+        <v>-11.50018988389138</v>
       </c>
       <c r="F68" t="n">
-        <v>4.202652682960659</v>
+        <v>1.819068027596011</v>
       </c>
       <c r="G68" t="n">
-        <v>-8.557995943178804</v>
+        <v>-8.455614134956507</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-6.039406409651396</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.19984254775322</v>
+        <v>-11.44190295164001</v>
       </c>
       <c r="F69" t="n">
-        <v>4.135017846480302</v>
+        <v>1.676649957283715</v>
       </c>
       <c r="G69" t="n">
-        <v>-8.447444537983269</v>
+        <v>-8.377453086991402</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-5.849649411766505</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.29429042045343</v>
+        <v>-11.5816501921726</v>
       </c>
       <c r="F70" t="n">
-        <v>4.057040090754982</v>
+        <v>1.608281951844222</v>
       </c>
       <c r="G70" t="n">
-        <v>-8.530724676359489</v>
+        <v>-8.46284108612514</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.659284784671629</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.38351446431979</v>
+        <v>-11.75634078898975</v>
       </c>
       <c r="F71" t="n">
-        <v>4.021062442545919</v>
+        <v>1.580081131523144</v>
       </c>
       <c r="G71" t="n">
-        <v>-8.45002372164309</v>
+        <v>-8.311860649754355</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-5.481056601515962</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.34968395377677</v>
+        <v>-11.68184558582033</v>
       </c>
       <c r="F72" t="n">
-        <v>3.832349989385279</v>
+        <v>1.397731537543583</v>
       </c>
       <c r="G72" t="n">
-        <v>-8.489745768464886</v>
+        <v>-8.30705577461144</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.322998280191801</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.5167417380372</v>
+        <v>-11.88602004863704</v>
       </c>
       <c r="F73" t="n">
-        <v>3.698441915920105</v>
+        <v>1.205379424192944</v>
       </c>
       <c r="G73" t="n">
-        <v>-8.140678790098786</v>
+        <v>-7.93097937548286</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.191136290410751</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.82218516333467</v>
+        <v>-12.22706144536117</v>
       </c>
       <c r="F74" t="n">
-        <v>3.733345995296147</v>
+        <v>1.197366934853807</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.868974229224444</v>
+        <v>-7.66376547448323</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-5.092476401218928</v>
       </c>
       <c r="E75" t="n">
-        <v>-13.06694576496074</v>
+        <v>-12.5428477899036</v>
       </c>
       <c r="F75" t="n">
-        <v>3.602396782273202</v>
+        <v>1.084275622906977</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.575510261027155</v>
+        <v>-7.308885513655404</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-5.027335124724113</v>
       </c>
       <c r="E76" t="n">
-        <v>-13.23480217969451</v>
+        <v>-12.66024646948536</v>
       </c>
       <c r="F76" t="n">
-        <v>3.472206922815078</v>
+        <v>0.9070451193385316</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.570810124306975</v>
+        <v>-7.261242623614362</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.999590359143276</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.57779432954205</v>
+        <v>-12.99344557680729</v>
       </c>
       <c r="F77" t="n">
-        <v>3.623815789722266</v>
+        <v>0.9938863640877007</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.430696299294823</v>
+        <v>-7.111885632795952</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-5.006099369272073</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.80654304479268</v>
+        <v>-13.34387415466893</v>
       </c>
       <c r="F78" t="n">
-        <v>3.487027409631912</v>
+        <v>0.8690905334003678</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.138855776649907</v>
+        <v>-6.726683898586687</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-5.048497172119956</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.1434079969103</v>
+        <v>-13.66511998949636</v>
       </c>
       <c r="F79" t="n">
-        <v>3.234633995449117</v>
+        <v>0.5818715936585813</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.162867060061632</v>
+        <v>-6.80027573286003</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-5.123366071947525</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.63605826054161</v>
+        <v>-14.16198597464271</v>
       </c>
       <c r="F80" t="n">
-        <v>3.45212333025587</v>
+        <v>0.7948833608934645</v>
       </c>
       <c r="G80" t="n">
-        <v>-7.072962216447499</v>
+        <v>-6.672233011067949</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-5.230765925475661</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.10577080959421</v>
+        <v>-14.60430942615042</v>
       </c>
       <c r="F81" t="n">
-        <v>3.382027140841269</v>
+        <v>0.7376699974751215</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.979574820277468</v>
+        <v>-6.603315128909102</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-5.370344928849516</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.77203810120965</v>
+        <v>-15.24979923315604</v>
       </c>
       <c r="F82" t="n">
-        <v>3.429604569368102</v>
+        <v>0.7804818277675658</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.881696764232724</v>
+        <v>-6.514798069396193</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-5.539493831236695</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.49367274154275</v>
+        <v>-15.89360013309508</v>
       </c>
       <c r="F83" t="n">
-        <v>3.477810428431337</v>
+        <v>0.7679394016451921</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.862843848140638</v>
+        <v>-6.509914640436229</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-5.739791325975417</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.30974216227322</v>
+        <v>-16.70134284921821</v>
       </c>
       <c r="F84" t="n">
-        <v>3.491112208118531</v>
+        <v>0.7741975224035372</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.513109162329609</v>
+        <v>-6.265363515655627</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-5.96594219480724</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.64188397641885</v>
+        <v>-18.05346351750031</v>
       </c>
       <c r="F85" t="n">
-        <v>3.437224289621986</v>
+        <v>0.7488639164047973</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.174804056899408</v>
+        <v>-5.889313301132729</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-6.22014545274488</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.64467582027801</v>
+        <v>-19.16475127500886</v>
       </c>
       <c r="F86" t="n">
-        <v>3.385981016299471</v>
+        <v>0.7535509608221352</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.794590490072841</v>
+        <v>-5.507528657965156</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-6.494643802208676</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.69640669215955</v>
+        <v>-20.15015654069422</v>
       </c>
       <c r="F87" t="n">
-        <v>3.291114189908324</v>
+        <v>0.5662917532769273</v>
       </c>
       <c r="G87" t="n">
-        <v>-5.70439761579619</v>
+        <v>-5.40637752620998</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-6.789763102596316</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.07325872050967</v>
+        <v>-21.62898451587854</v>
       </c>
       <c r="F88" t="n">
-        <v>3.246417068006671</v>
+        <v>0.5101519586916059</v>
       </c>
       <c r="G88" t="n">
-        <v>-5.364639264750557</v>
+        <v>-5.073335526522152</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-7.101517063949827</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.6136467036558</v>
+        <v>-23.15224776690769</v>
       </c>
       <c r="F89" t="n">
-        <v>3.376214158379543</v>
+        <v>0.6185693185239395</v>
       </c>
       <c r="G89" t="n">
-        <v>-5.496963169571883</v>
+        <v>-5.233559128699196</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.425844290902472</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.01004554014862</v>
+        <v>-24.5284713647214</v>
       </c>
       <c r="F90" t="n">
-        <v>3.356261488848753</v>
+        <v>0.6015231402240121</v>
       </c>
       <c r="G90" t="n">
-        <v>-5.432339562745122</v>
+        <v>-5.12360996943438</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-7.764448989657198</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.45493826636719</v>
+        <v>-26.00587227889599</v>
       </c>
       <c r="F91" t="n">
-        <v>3.267862260061418</v>
+        <v>0.5687923831196969</v>
       </c>
       <c r="G91" t="n">
-        <v>-5.272966960252791</v>
+        <v>-4.995816001396292</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-8.110798386577784</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.15696382039726</v>
+        <v>-27.71985110542055</v>
       </c>
       <c r="F92" t="n">
-        <v>3.323347439504653</v>
+        <v>0.5856552691798401</v>
       </c>
       <c r="G92" t="n">
-        <v>-5.447238603379007</v>
+        <v>-5.193928727997291</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-8.469713280997766</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.07141198803434</v>
+        <v>-29.6079968366486</v>
       </c>
       <c r="F93" t="n">
-        <v>3.34903453768012</v>
+        <v>0.6616953640845852</v>
       </c>
       <c r="G93" t="n">
-        <v>-5.759673318393958</v>
+        <v>-5.615252125746878</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-8.833123762405179</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.20591558183515</v>
+        <v>-31.80055170124962</v>
       </c>
       <c r="F94" t="n">
-        <v>3.295670311297244</v>
+        <v>0.6024265091200912</v>
       </c>
       <c r="G94" t="n">
-        <v>-5.575883571101807</v>
+        <v>-5.424981688548073</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-9.203346333877949</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.12867736177672</v>
+        <v>-33.56809113869969</v>
       </c>
       <c r="F95" t="n">
-        <v>3.111252133468691</v>
+        <v>0.4665022210172912</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.833710290963919</v>
+        <v>-5.71971561012101</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-9.582061101230492</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.6056494133114</v>
+        <v>-35.98383048984362</v>
       </c>
       <c r="F96" t="n">
-        <v>3.090487741161713</v>
+        <v>0.6411011717145501</v>
       </c>
       <c r="G96" t="n">
-        <v>-6.078968400097973</v>
+        <v>-6.132463549509266</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-9.9609104320248</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.9056004381231</v>
+        <v>-38.23170033395094</v>
       </c>
       <c r="F97" t="n">
-        <v>3.069068733712649</v>
+        <v>0.7127029759559499</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.44590637184303</v>
+        <v>-6.592448517550469</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-10.35466855098073</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.17825401150981</v>
+        <v>-40.45872723193423</v>
       </c>
       <c r="F98" t="n">
-        <v>2.591801925920367</v>
+        <v>0.3320049939242393</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.517180868513386</v>
+        <v>-6.653314633461654</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-10.74357249455487</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.47641139083219</v>
+        <v>-42.66230581552798</v>
       </c>
       <c r="F99" t="n">
-        <v>2.546371635059578</v>
+        <v>0.2532286077255735</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.82356693961546</v>
+        <v>-7.071548247740593</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-11.15800634120399</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.7582295762081</v>
+        <v>-44.94844446084166</v>
       </c>
       <c r="F100" t="n">
-        <v>2.294632836018869</v>
+        <v>0.06536715424964618</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.872649982969091</v>
+        <v>-7.190936957354293</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-11.55660678095754</v>
       </c>
       <c r="E101" t="n">
-        <v>-47.87660345290791</v>
+        <v>-46.90950122659528</v>
       </c>
       <c r="F101" t="n">
-        <v>1.978532276208235</v>
+        <v>-0.116864609004339</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.797120487875174</v>
+        <v>-7.327319476056553</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-12.00757007003443</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.48976163860222</v>
+        <v>-49.52027661317241</v>
       </c>
       <c r="F102" t="n">
-        <v>1.812312399329681</v>
+        <v>-0.02118605983700486</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.003075503878366</v>
+        <v>-7.699690753480927</v>
       </c>
     </row>
   </sheetData>
